--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="H2">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="I2">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="J2">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q2">
-        <v>479.2280623661592</v>
+        <v>288.785643024655</v>
       </c>
       <c r="R2">
-        <v>4313.052561295432</v>
+        <v>2599.070787221895</v>
       </c>
       <c r="S2">
-        <v>0.1171567903890804</v>
+        <v>0.1026393663034766</v>
       </c>
       <c r="T2">
-        <v>0.1171567903890804</v>
+        <v>0.1026393663034765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="H3">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="I3">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="J3">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.135769</v>
       </c>
       <c r="O3">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P3">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q3">
-        <v>15.26279925244466</v>
+        <v>16.55737235740056</v>
       </c>
       <c r="R3">
-        <v>137.365193272002</v>
+        <v>149.016351216605</v>
       </c>
       <c r="S3">
-        <v>0.00373129353890596</v>
+        <v>0.005884773871079193</v>
       </c>
       <c r="T3">
-        <v>0.003731293538905959</v>
+        <v>0.005884773871079193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="H4">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="I4">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="J4">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N4">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q4">
-        <v>142.3826764771993</v>
+        <v>150.5112058207545</v>
       </c>
       <c r="R4">
-        <v>1281.444088294794</v>
+        <v>1354.60085238679</v>
       </c>
       <c r="S4">
-        <v>0.03480826498497101</v>
+        <v>0.05349426178258961</v>
       </c>
       <c r="T4">
-        <v>0.03480826498497101</v>
+        <v>0.05349426178258961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="H5">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="I5">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="J5">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N5">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O5">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P5">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q5">
-        <v>166.226257325428</v>
+        <v>106.4803386057211</v>
       </c>
       <c r="R5">
-        <v>1496.036315928852</v>
+        <v>958.3230474514901</v>
       </c>
       <c r="S5">
-        <v>0.04063730051717376</v>
+        <v>0.03784493703981593</v>
       </c>
       <c r="T5">
-        <v>0.04063730051717376</v>
+        <v>0.03784493703981592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>208.959881</v>
       </c>
       <c r="I6">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="J6">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N6">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O6">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P6">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q6">
-        <v>827.9773620418458</v>
+        <v>459.933026713979</v>
       </c>
       <c r="R6">
-        <v>7451.796258376612</v>
+        <v>4139.397240425811</v>
       </c>
       <c r="S6">
-        <v>0.2024154632612561</v>
+        <v>0.1634680793322279</v>
       </c>
       <c r="T6">
-        <v>0.2024154632612561</v>
+        <v>0.1634680793322279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>208.959881</v>
       </c>
       <c r="I7">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="J7">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.135769</v>
       </c>
       <c r="O7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q7">
         <v>26.37001723149878</v>
@@ -883,10 +883,10 @@
         <v>237.330155083489</v>
       </c>
       <c r="S7">
-        <v>0.006446672939170728</v>
+        <v>0.009372356013632286</v>
       </c>
       <c r="T7">
-        <v>0.006446672939170727</v>
+        <v>0.009372356013632286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>208.959881</v>
       </c>
       <c r="I8">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="J8">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N8">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O8">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P8">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q8">
-        <v>245.9990182711259</v>
+        <v>239.7109278787802</v>
       </c>
       <c r="R8">
-        <v>2213.991164440133</v>
+        <v>2157.398350909022</v>
       </c>
       <c r="S8">
-        <v>0.06013933173531329</v>
+        <v>0.08519737157222816</v>
       </c>
       <c r="T8">
-        <v>0.06013933173531328</v>
+        <v>0.08519737157222818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>208.959881</v>
       </c>
       <c r="I9">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="J9">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N9">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O9">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P9">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q9">
-        <v>287.1943211398126</v>
+        <v>169.5853848810536</v>
       </c>
       <c r="R9">
-        <v>2584.748890258314</v>
+        <v>1526.268463929482</v>
       </c>
       <c r="S9">
-        <v>0.07021033934570198</v>
+        <v>0.06027355188511386</v>
       </c>
       <c r="T9">
-        <v>0.07021033934570196</v>
+        <v>0.06027355188511385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="H10">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="I10">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="J10">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N10">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O10">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P10">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q10">
-        <v>308.6719392333488</v>
+        <v>246.908257072652</v>
       </c>
       <c r="R10">
-        <v>2778.047453100139</v>
+        <v>2222.174313653868</v>
       </c>
       <c r="S10">
-        <v>0.07546096842743251</v>
+        <v>0.08775542570469569</v>
       </c>
       <c r="T10">
-        <v>0.07546096842743251</v>
+        <v>0.08775542570469569</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="H11">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="I11">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="J11">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.135769</v>
       </c>
       <c r="O11">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P11">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q11">
-        <v>9.830805441818557</v>
+        <v>14.15635454605911</v>
       </c>
       <c r="R11">
-        <v>88.47724897636701</v>
+        <v>127.407190914532</v>
       </c>
       <c r="S11">
-        <v>0.002403335077700362</v>
+        <v>0.005031410995908815</v>
       </c>
       <c r="T11">
-        <v>0.002403335077700362</v>
+        <v>0.005031410995908814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="H12">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="I12">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="J12">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q12">
-        <v>91.70902188918879</v>
+        <v>128.6852736509929</v>
       </c>
       <c r="R12">
-        <v>825.3811970026991</v>
+        <v>1158.167462858936</v>
       </c>
       <c r="S12">
-        <v>0.02242008658927397</v>
+        <v>0.04573695146957057</v>
       </c>
       <c r="T12">
-        <v>0.02242008658927397</v>
+        <v>0.04573695146957058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="H13">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="I13">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="J13">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N13">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O13">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P13">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q13">
-        <v>107.0667292453713</v>
+        <v>91.03941090104624</v>
       </c>
       <c r="R13">
-        <v>963.600563208342</v>
+        <v>819.3546981094161</v>
       </c>
       <c r="S13">
-        <v>0.02617458229368114</v>
+        <v>0.03235696673025895</v>
       </c>
       <c r="T13">
-        <v>0.02617458229368114</v>
+        <v>0.03235696673025895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="H14">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="I14">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="J14">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N14">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O14">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P14">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q14">
-        <v>825.0086676484642</v>
+        <v>449.2886063423239</v>
       </c>
       <c r="R14">
-        <v>7425.078008836178</v>
+        <v>4043.597457080916</v>
       </c>
       <c r="S14">
-        <v>0.2016897071253208</v>
+        <v>0.1596848699241299</v>
       </c>
       <c r="T14">
-        <v>0.2016897071253208</v>
+        <v>0.15968486992413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="H15">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="I15">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="J15">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.135769</v>
       </c>
       <c r="O15">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P15">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q15">
-        <v>26.27546812194888</v>
+        <v>25.75972500998711</v>
       </c>
       <c r="R15">
-        <v>236.47921309754</v>
+        <v>231.837525089884</v>
       </c>
       <c r="S15">
-        <v>0.006423558536908225</v>
+        <v>0.009155447699839999</v>
       </c>
       <c r="T15">
-        <v>0.006423558536908225</v>
+        <v>0.009155447699840001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="H16">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="I16">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="J16">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N16">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O16">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P16">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q16">
-        <v>245.1169942692644</v>
+        <v>234.1631986751368</v>
       </c>
       <c r="R16">
-        <v>2206.052948423379</v>
+        <v>2107.468788076232</v>
       </c>
       <c r="S16">
-        <v>0.05992370350061849</v>
+        <v>0.08322561354464286</v>
       </c>
       <c r="T16">
-        <v>0.05992370350061849</v>
+        <v>0.08322561354464288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="H17">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="I17">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="J17">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q17">
-        <v>286.1645922968933</v>
+        <v>165.6606001391102</v>
       </c>
       <c r="R17">
-        <v>2575.481330672039</v>
+        <v>1490.945401251992</v>
       </c>
       <c r="S17">
-        <v>0.06995860173749129</v>
+        <v>0.05887861613078957</v>
       </c>
       <c r="T17">
-        <v>0.0699586017374913</v>
+        <v>0.05887861613078958</v>
       </c>
     </row>
   </sheetData>
